--- a/biology/Microbiologie/Strombidinopsidae/Strombidinopsidae.xlsx
+++ b/biology/Microbiologie/Strombidinopsidae/Strombidinopsidae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Strombidinopsidae sont une famille de Ciliés de la classe des Oligotrichea et de l’ordre des Choreotrichida.
 </t>
@@ -511,7 +523,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le nom de la famille vient du genre type Strombidinopsis, construit à partir de strombidium, par allusion au genre éponyme Strombidium, genre type de la famille des Strombidiidae, et du suffixe latin -opsis « semblable à », littéralement « semblable à un Strombidium ».
 			Strombidium turbo et Strombidium viride.
@@ -543,12 +557,14 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Le genre type Strombidinopsis a un corps dont la forme est : 
 soit presque cylindrique avec une région postérieure largement arrondie et l'extrémité apicale tronquée ;
 soit piriforme (en forme de poire) allongé.
-Les cils somatiques[note 1], courts et peu mobiles, sont répartis sur toute la surface du corps et disposés en plusieurs cinéties[note 2] longitudinales. L'AZM[note 3] se situé sur la partie apicale ; elle est fermée et se situe sur un rebord encerclant la région du péristome apical déprimé[1].
+Les cils somatiques[note 1], courts et peu mobiles, sont répartis sur toute la surface du corps et disposés en plusieurs cinéties[note 2] longitudinales. L'AZM[note 3] se situé sur la partie apicale ; elle est fermée et se situe sur un rebord encerclant la région du péristome apical déprimé.
 </t>
         </is>
       </c>
@@ -578,6 +594,8 @@
         </is>
       </c>
       <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -603,9 +621,11 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Selon GBIF       (4 octobre 2022)[2] :
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Selon GBIF       (4 octobre 2022) :
 Parastrombidinopsis Kim, Jeong, Strüder-Kypke, Lynn, Kim, Kim &amp; Lee, 2005
 Parastrombidium Fauré-Fremiet, 1924
 Strombidinopsis Kent, 1881</t>
@@ -636,13 +656,15 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>Le nom valide de ce taxon est Strombidinopsidae Small &amp; Lynn, 1985[3].
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Le nom valide de ce taxon est Strombidinopsidae Small &amp; Lynn, 1985.
 La systématique de ce groupe de protistes et très complexe et très discutée.
 Par exemple, Faure-Fremiet en 1969 a utilisé le « cercle fermé » des OPk (Oral PolyKinetids)[note 4] pour séparer les tintinnines, strobilidiids et les strombidinopsids des strombidiids et des halteriids, qui ont un « cercle ouvert ». Small et Lynn (1985) ont suivi cette approche, divisant leur sous-classe des Choreotrichia en deux ordres :
 les Oligotrichida, comprenant les familles des Halteriidae et des Strombidiidae ;
-les Choreotrichida, comprenant les sous-ordres des Tintinnina, des Strobilidiina et des Strombidinopsina[1].</t>
+les Choreotrichida, comprenant les sous-ordres des Tintinnina, des Strobilidiina et des Strombidinopsina.</t>
         </is>
       </c>
     </row>
